--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/20/seed5/result_data_RandomForest.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>5.526099999999992</v>
+        <v>5.416099999999992</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -499,7 +499,7 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.653200000000004</v>
+        <v>4.795600000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.061</v>
+        <v>-10.8008</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -550,10 +550,10 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.041799999999996</v>
+        <v>5.813900000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.86489999999999</v>
+        <v>-11.2971</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,10 +567,10 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.043099999999998</v>
+        <v>5.110399999999997</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.53409999999999</v>
+        <v>-10.58839999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.07580000000001</v>
+        <v>-22.03900000000002</v>
       </c>
       <c r="B11" t="n">
         <v>6.01</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.937299999999992</v>
+        <v>-8.890199999999988</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.71400000000001</v>
+        <v>-22.72950000000001</v>
       </c>
       <c r="B12" t="n">
-        <v>5.3771</v>
+        <v>5.2123</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,13 +669,13 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>9.380800000000004</v>
+        <v>9.733100000000006</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.828699999999996</v>
+        <v>-8.811499999999997</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.41480000000002</v>
+        <v>-21.43430000000002</v>
       </c>
       <c r="B15" t="n">
         <v>5.53</v>
@@ -757,10 +757,10 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.4986</v>
+        <v>-12.6415</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.586099999999991</v>
+        <v>-8.638199999999987</v>
       </c>
       <c r="E19" t="n">
         <v>13.12</v>
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.1485</v>
+        <v>-12.5359</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.740599999999992</v>
+        <v>-8.76949999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>5.098700000000005</v>
+        <v>4.968300000000004</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.7881</v>
+        <v>-11.5334</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.4869</v>
+        <v>-10.61169999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
